--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Jag2-Notch3.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Jag2-Notch3.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.4460523080713</v>
+        <v>16.75560066666667</v>
       </c>
       <c r="H2">
-        <v>3.4460523080713</v>
+        <v>50.266802</v>
       </c>
       <c r="I2">
-        <v>0.7608082091941479</v>
+        <v>0.9064438825950116</v>
       </c>
       <c r="J2">
-        <v>0.7608082091941479</v>
+        <v>0.9064438825950115</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.1028172623171</v>
+        <v>7.457778999999999</v>
       </c>
       <c r="N2">
-        <v>2.1028172623171</v>
+        <v>22.373337</v>
       </c>
       <c r="O2">
-        <v>0.0253124470148074</v>
+        <v>0.08029647035915141</v>
       </c>
       <c r="P2">
-        <v>0.0253124470148074</v>
+        <v>0.0802964703591514</v>
       </c>
       <c r="Q2">
-        <v>7.246418280260015</v>
+        <v>124.9595667842527</v>
       </c>
       <c r="R2">
-        <v>7.246418280260015</v>
+        <v>1124.636101058274</v>
       </c>
       <c r="S2">
-        <v>0.01925791748365737</v>
+        <v>0.07278424435102447</v>
       </c>
       <c r="T2">
-        <v>0.01925791748365737</v>
+        <v>0.07278424435102446</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.4460523080713</v>
+        <v>16.75560066666667</v>
       </c>
       <c r="H3">
-        <v>3.4460523080713</v>
+        <v>50.266802</v>
       </c>
       <c r="I3">
-        <v>0.7608082091941479</v>
+        <v>0.9064438825950116</v>
       </c>
       <c r="J3">
-        <v>0.7608082091941479</v>
+        <v>0.9064438825950115</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.61422099607753</v>
+        <v>2.732509</v>
       </c>
       <c r="N3">
-        <v>2.61422099607753</v>
+        <v>8.197526999999999</v>
       </c>
       <c r="O3">
-        <v>0.03146841698231734</v>
+        <v>0.02942039820764526</v>
       </c>
       <c r="P3">
-        <v>0.03146841698231734</v>
+        <v>0.02942039820764525</v>
       </c>
       <c r="Q3">
-        <v>9.008742297341424</v>
+        <v>45.78482962207266</v>
       </c>
       <c r="R3">
-        <v>9.008742297341424</v>
+        <v>412.0634665986539</v>
       </c>
       <c r="S3">
-        <v>0.02394142997049157</v>
+        <v>0.02666793997882929</v>
       </c>
       <c r="T3">
-        <v>0.02394142997049157</v>
+        <v>0.02666793997882928</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.4460523080713</v>
+        <v>16.75560066666667</v>
       </c>
       <c r="H4">
-        <v>3.4460523080713</v>
+        <v>50.266802</v>
       </c>
       <c r="I4">
-        <v>0.7608082091941479</v>
+        <v>0.9064438825950116</v>
       </c>
       <c r="J4">
-        <v>0.7608082091941479</v>
+        <v>0.9064438825950115</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>78.3573978515154</v>
+        <v>82.68775466666666</v>
       </c>
       <c r="N4">
-        <v>78.3573978515154</v>
+        <v>248.063264</v>
       </c>
       <c r="O4">
-        <v>0.9432191360028753</v>
+        <v>0.8902831314332034</v>
       </c>
       <c r="P4">
-        <v>0.9432191360028753</v>
+        <v>0.8902831314332033</v>
       </c>
       <c r="Q4">
-        <v>270.0236917206757</v>
+        <v>1385.48299721797</v>
       </c>
       <c r="R4">
-        <v>270.0236917206757</v>
+        <v>12469.34697496173</v>
       </c>
       <c r="S4">
-        <v>0.717608861739999</v>
+        <v>0.8069916982651579</v>
       </c>
       <c r="T4">
-        <v>0.717608861739999</v>
+        <v>0.8069916982651577</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.0234516866129257</v>
+        <v>0.07688299999999999</v>
       </c>
       <c r="H5">
-        <v>0.0234516866129257</v>
+        <v>0.230649</v>
       </c>
       <c r="I5">
-        <v>0.005177587018273784</v>
+        <v>0.004159213770485276</v>
       </c>
       <c r="J5">
-        <v>0.005177587018273784</v>
+        <v>0.004159213770485276</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.1028172623171</v>
+        <v>7.457778999999999</v>
       </c>
       <c r="N5">
-        <v>2.1028172623171</v>
+        <v>22.373337</v>
       </c>
       <c r="O5">
-        <v>0.0253124470148074</v>
+        <v>0.08029647035915141</v>
       </c>
       <c r="P5">
-        <v>0.0253124470148074</v>
+        <v>0.0802964703591514</v>
       </c>
       <c r="Q5">
-        <v>0.049314611440111</v>
+        <v>0.5733764228569999</v>
       </c>
       <c r="R5">
-        <v>0.049314611440111</v>
+        <v>5.160387805712999</v>
       </c>
       <c r="S5">
-        <v>0.0001310573970646098</v>
+        <v>0.0003339701852391454</v>
       </c>
       <c r="T5">
-        <v>0.0001310573970646098</v>
+        <v>0.0003339701852391453</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.0234516866129257</v>
+        <v>0.07688299999999999</v>
       </c>
       <c r="H6">
-        <v>0.0234516866129257</v>
+        <v>0.230649</v>
       </c>
       <c r="I6">
-        <v>0.005177587018273784</v>
+        <v>0.004159213770485276</v>
       </c>
       <c r="J6">
-        <v>0.005177587018273784</v>
+        <v>0.004159213770485276</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.61422099607753</v>
+        <v>2.732509</v>
       </c>
       <c r="N6">
-        <v>2.61422099607753</v>
+        <v>8.197526999999999</v>
       </c>
       <c r="O6">
-        <v>0.03146841698231734</v>
+        <v>0.02942039820764526</v>
       </c>
       <c r="P6">
-        <v>0.03146841698231734</v>
+        <v>0.02942039820764525</v>
       </c>
       <c r="Q6">
-        <v>0.06130789153694069</v>
+        <v>0.210083489447</v>
       </c>
       <c r="R6">
-        <v>0.06130789153694069</v>
+        <v>1.890751405023</v>
       </c>
       <c r="S6">
-        <v>0.0001629304672532725</v>
+        <v>0.0001223657253583985</v>
       </c>
       <c r="T6">
-        <v>0.0001629304672532725</v>
+        <v>0.0001223657253583985</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.0234516866129257</v>
+        <v>0.07688299999999999</v>
       </c>
       <c r="H7">
-        <v>0.0234516866129257</v>
+        <v>0.230649</v>
       </c>
       <c r="I7">
-        <v>0.005177587018273784</v>
+        <v>0.004159213770485276</v>
       </c>
       <c r="J7">
-        <v>0.005177587018273784</v>
+        <v>0.004159213770485276</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>78.3573978515154</v>
+        <v>82.68775466666666</v>
       </c>
       <c r="N7">
-        <v>78.3573978515154</v>
+        <v>248.063264</v>
       </c>
       <c r="O7">
-        <v>0.9432191360028753</v>
+        <v>0.8902831314332034</v>
       </c>
       <c r="P7">
-        <v>0.9432191360028753</v>
+        <v>0.8902831314332033</v>
       </c>
       <c r="Q7">
-        <v>1.837613138218077</v>
+        <v>6.357282642037332</v>
       </c>
       <c r="R7">
-        <v>1.837613138218077</v>
+        <v>57.215543778336</v>
       </c>
       <c r="S7">
-        <v>0.004883599153955902</v>
+        <v>0.003702877859887733</v>
       </c>
       <c r="T7">
-        <v>0.004883599153955902</v>
+        <v>0.003702877859887732</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.05995857738946</v>
+        <v>1.652500333333333</v>
       </c>
       <c r="H8">
-        <v>1.05995857738946</v>
+        <v>4.957501</v>
       </c>
       <c r="I8">
-        <v>0.2340142037875783</v>
+        <v>0.0893969036345032</v>
       </c>
       <c r="J8">
-        <v>0.2340142037875783</v>
+        <v>0.08939690363450319</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.1028172623171</v>
+        <v>7.457778999999999</v>
       </c>
       <c r="N8">
-        <v>2.1028172623171</v>
+        <v>22.373337</v>
       </c>
       <c r="O8">
-        <v>0.0253124470148074</v>
+        <v>0.08029647035915141</v>
       </c>
       <c r="P8">
-        <v>0.0253124470148074</v>
+        <v>0.0802964703591514</v>
       </c>
       <c r="Q8">
-        <v>2.228899193875632</v>
+        <v>12.32398228342633</v>
       </c>
       <c r="R8">
-        <v>2.228899193875632</v>
+        <v>110.915840550837</v>
       </c>
       <c r="S8">
-        <v>0.005923472134085416</v>
+        <v>0.007178255822887801</v>
       </c>
       <c r="T8">
-        <v>0.005923472134085416</v>
+        <v>0.007178255822887799</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.05995857738946</v>
+        <v>1.652500333333333</v>
       </c>
       <c r="H9">
-        <v>1.05995857738946</v>
+        <v>4.957501</v>
       </c>
       <c r="I9">
-        <v>0.2340142037875783</v>
+        <v>0.0893969036345032</v>
       </c>
       <c r="J9">
-        <v>0.2340142037875783</v>
+        <v>0.08939690363450319</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.61422099607753</v>
+        <v>2.732509</v>
       </c>
       <c r="N9">
-        <v>2.61422099607753</v>
+        <v>8.197526999999999</v>
       </c>
       <c r="O9">
-        <v>0.03146841698231734</v>
+        <v>0.02942039820764526</v>
       </c>
       <c r="P9">
-        <v>0.03146841698231734</v>
+        <v>0.02942039820764525</v>
       </c>
       <c r="Q9">
-        <v>2.770965967983996</v>
+        <v>4.515472033336333</v>
       </c>
       <c r="R9">
-        <v>2.770965967983996</v>
+        <v>40.63924830002699</v>
       </c>
       <c r="S9">
-        <v>0.007364056544572501</v>
+        <v>0.002630092503457574</v>
       </c>
       <c r="T9">
-        <v>0.007364056544572501</v>
+        <v>0.002630092503457573</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.05995857738946</v>
+        <v>1.652500333333333</v>
       </c>
       <c r="H10">
-        <v>1.05995857738946</v>
+        <v>4.957501</v>
       </c>
       <c r="I10">
-        <v>0.2340142037875783</v>
+        <v>0.0893969036345032</v>
       </c>
       <c r="J10">
-        <v>0.2340142037875783</v>
+        <v>0.08939690363450319</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>78.3573978515154</v>
+        <v>82.68775466666666</v>
       </c>
       <c r="N10">
-        <v>78.3573978515154</v>
+        <v>248.063264</v>
       </c>
       <c r="O10">
-        <v>0.9432191360028753</v>
+        <v>0.8902831314332034</v>
       </c>
       <c r="P10">
-        <v>0.9432191360028753</v>
+        <v>0.8902831314332033</v>
       </c>
       <c r="Q10">
-        <v>83.0555959546322</v>
+        <v>136.6415421492515</v>
       </c>
       <c r="R10">
-        <v>83.0555959546322</v>
+        <v>1229.773879343264</v>
       </c>
       <c r="S10">
-        <v>0.2207266751089204</v>
+        <v>0.07958855530815782</v>
       </c>
       <c r="T10">
-        <v>0.2207266751089204</v>
+        <v>0.07958855530815781</v>
       </c>
     </row>
   </sheetData>
